--- a/low-flow-index/dados-saida/sao_mateus_do_sul.xlsx
+++ b/low-flow-index/dados-saida/sao_mateus_do_sul.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="8">
   <si>
     <t>ts</t>
   </si>
@@ -26,6 +26,36 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>Pexpon(&lt;=Dobs)</t>
+  </si>
+  <si>
+    <t>Pgama(&lt;=Dobs)</t>
+  </si>
+  <si>
+    <t>[0.39525829 0.14015618 0.48217841 0.56640744 0.67939877 0.61817501
+ 0.95118835 0.77149266 0.55762088 0.14955558 0.54002621 0.07513642
+ 0.         0.48976552 0.7819799  0.89884441 0.15951027 0.90204476
+ 0.1484401  0.15108362 0.05214287 0.79156827 0.88053809 0.26269047
+ 0.22031236 0.88185659 0.45536056 0.91744097 0.11105805 0.07925195
+ 0.28934313 0.98590199 0.75880741 0.33747509 0.04468845 0.91547996
+ 0.98801962 0.03625127 0.27355796 0.57131829 0.08508804 0.25427125
+ 0.73393355 0.06963874 0.25455942 0.08324957 0.48775692 0.94854742]</t>
+  </si>
+  <si>
+    <t>[5.70073488e-01 2.92428575e-01 6.46250074e-01 7.14531761e-01
+ 7.99000948e-01 7.54174902e-01 9.73436954e-01 8.62533272e-01
+ 7.07635252e-01 3.05027587e-01 6.93672457e-01 1.94754352e-01
+ 5.21666340e-12 6.52608336e-01 8.69482895e-01 9.43000454e-01
+ 3.18061347e-01 9.44909113e-01 3.03547721e-01 3.07048298e-01
+ 1.53359366e-01 8.75786553e-01 9.31970921e-01 4.39081014e-01
+ 3.92023600e-01 9.32771589e-01 6.23419546e-01 9.54007577e-01
+ 2.51326506e-01 2.01659773e-01 4.67194649e-01 9.92561350e-01
+ 8.54050108e-01 5.15534693e-01 1.38623547e-01 9.52856528e-01
+ 9.93692662e-01 1.20863629e-01 4.50670827e-01 7.18364499e-01
+ 2.11238973e-01 4.29975707e-01 8.37169913e-01 1.85318030e-01
+ 4.30289236e-01 2.08247146e-01 6.50929276e-01 9.71943660e-01]</t>
   </si>
 </sst>
 </file>
@@ -388,13 +418,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,8 +437,14 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -424,8 +460,14 @@
       <c r="E2" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>6</v>
       </c>
@@ -441,8 +483,14 @@
       <c r="E3" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>8</v>
       </c>
@@ -458,8 +506,14 @@
       <c r="E4" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -475,8 +529,14 @@
       <c r="E5" s="3">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>14</v>
       </c>
@@ -492,8 +552,14 @@
       <c r="E6" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>15</v>
       </c>
@@ -509,8 +575,14 @@
       <c r="E7" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>19</v>
       </c>
@@ -526,8 +598,14 @@
       <c r="E8" s="3">
         <v>131</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>21</v>
       </c>
@@ -543,8 +621,14 @@
       <c r="E9" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>24</v>
       </c>
@@ -560,8 +644,14 @@
       <c r="E10" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>29</v>
       </c>
@@ -577,8 +667,14 @@
       <c r="E11" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>33</v>
       </c>
@@ -594,8 +690,14 @@
       <c r="E12" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>34</v>
       </c>
@@ -611,8 +713,14 @@
       <c r="E13" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>37</v>
       </c>
@@ -628,8 +736,14 @@
       <c r="E14" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>39</v>
       </c>
@@ -645,8 +759,14 @@
       <c r="E15" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>41</v>
       </c>
@@ -662,8 +782,14 @@
       <c r="E16" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>43</v>
       </c>
@@ -679,8 +805,14 @@
       <c r="E17" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>44</v>
       </c>
@@ -696,8 +828,14 @@
       <c r="E18" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>45</v>
       </c>
@@ -713,8 +851,14 @@
       <c r="E19" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>47</v>
       </c>
@@ -730,8 +874,14 @@
       <c r="E20" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>50</v>
       </c>
@@ -747,8 +897,14 @@
       <c r="E21" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>52</v>
       </c>
@@ -764,8 +920,14 @@
       <c r="E22" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>55</v>
       </c>
@@ -781,8 +943,14 @@
       <c r="E23" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>59</v>
       </c>
@@ -798,8 +966,14 @@
       <c r="E24" s="3">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>64</v>
       </c>
@@ -815,8 +989,14 @@
       <c r="E25" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>67</v>
       </c>
@@ -832,8 +1012,14 @@
       <c r="E26" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>71</v>
       </c>
@@ -849,8 +1035,14 @@
       <c r="E27" s="3">
         <v>74</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>72</v>
       </c>
@@ -866,8 +1058,14 @@
       <c r="E28" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>75</v>
       </c>
@@ -883,8 +1081,14 @@
       <c r="E29" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>76</v>
       </c>
@@ -900,8 +1104,14 @@
       <c r="E30" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>78</v>
       </c>
@@ -917,8 +1127,14 @@
       <c r="E31" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>80</v>
       </c>
@@ -934,8 +1150,14 @@
       <c r="E32" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>86</v>
       </c>
@@ -951,8 +1173,14 @@
       <c r="E33" s="3">
         <v>174</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>88</v>
       </c>
@@ -968,8 +1196,14 @@
       <c r="E34" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>89</v>
       </c>
@@ -985,8 +1219,14 @@
       <c r="E35" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>90</v>
       </c>
@@ -1002,8 +1242,14 @@
       <c r="E36" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>98</v>
       </c>
@@ -1019,8 +1265,14 @@
       <c r="E37" s="3">
         <v>116</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>103</v>
       </c>
@@ -1036,8 +1288,14 @@
       <c r="E38" s="3">
         <v>111</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>105</v>
       </c>
@@ -1053,8 +1311,14 @@
       <c r="E39" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>106</v>
       </c>
@@ -1070,8 +1334,14 @@
       <c r="E40" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>107</v>
       </c>
@@ -1087,8 +1357,14 @@
       <c r="E41" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>110</v>
       </c>
@@ -1104,8 +1380,14 @@
       <c r="E42" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>111</v>
       </c>
@@ -1121,8 +1403,14 @@
       <c r="E43" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>114</v>
       </c>
@@ -1138,8 +1426,14 @@
       <c r="E44" s="3">
         <v>57</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>115</v>
       </c>
@@ -1155,8 +1449,14 @@
       <c r="E45" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>116</v>
       </c>
@@ -1172,8 +1472,14 @@
       <c r="E46" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>118</v>
       </c>
@@ -1189,8 +1495,14 @@
       <c r="E47" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>121</v>
       </c>
@@ -1206,8 +1518,14 @@
       <c r="E48" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>133</v>
       </c>
@@ -1222,6 +1540,12 @@
       </c>
       <c r="E49" s="3">
         <v>105</v>
+      </c>
+      <c r="F49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
